--- a/cap/Hardware.xlsx
+++ b/cap/Hardware.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="HARDWARE" sheetId="1" r:id="rId1"/>
     <sheet name="ELEMENTOS AUXILIARES" sheetId="2" r:id="rId2"/>
+    <sheet name="APLICACIONES" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="85">
   <si>
     <t>HOST VIRTUAL</t>
   </si>
@@ -201,6 +202,75 @@
   </si>
   <si>
     <t>Campos que se combinan bajo una misma funcionalidad</t>
+  </si>
+  <si>
+    <t>Nombre largo</t>
+  </si>
+  <si>
+    <t>Confidencialidad</t>
+  </si>
+  <si>
+    <t>Integridad</t>
+  </si>
+  <si>
+    <t>Disponibilidad</t>
+  </si>
+  <si>
+    <t>Criticidad</t>
+  </si>
+  <si>
+    <t>Lenguaje</t>
+  </si>
+  <si>
+    <t>Herramienta desarrollo</t>
+  </si>
+  <si>
+    <t>Plataforma</t>
+  </si>
+  <si>
+    <t>Modo procesamiento</t>
+  </si>
+  <si>
+    <t>Lugar procesamiento</t>
+  </si>
+  <si>
+    <t>Localizacion procesamiento</t>
+  </si>
+  <si>
+    <t>Tipo interfaz</t>
+  </si>
+  <si>
+    <t>Tecnologia</t>
+  </si>
+  <si>
+    <t>Descripcion interfaz</t>
+  </si>
+  <si>
+    <t>Seguridad</t>
+  </si>
+  <si>
+    <t>Modalidad desarrollo</t>
+  </si>
+  <si>
+    <t>Responsable</t>
+  </si>
+  <si>
+    <t>Criticidad BIA</t>
+  </si>
+  <si>
+    <t>Servidor Produccion</t>
+  </si>
+  <si>
+    <t>Servidor Desarrollo</t>
+  </si>
+  <si>
+    <t>Servidor Test</t>
+  </si>
+  <si>
+    <t>Base de datos</t>
+  </si>
+  <si>
+    <t>DESARROLLADOR</t>
   </si>
 </sst>
 </file>
@@ -1167,7 +1237,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -1501,4 +1571,192 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C25" sqref="B25:C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.42578125" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>